--- a/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>貴
-1. 귀할 귀(expensive)
-2. 자리 석(seat)
-3. 한나라 한</t>
+1. 던질 투
+2. 귀할 귀
+3. 던질 포</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 귀할 귀(expensive)</t>
+          <t>2, 귀할 귀</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>遺
-1. 세금 세(Tax)
-2. 새 추(Lingering)
-3. 남길 유</t>
+1. 방패 간
+2. 남길 유
+3. 형세 세</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 남길 유, 잃을 유(Legacy)</t>
+          <t>2, 남길 유, 잃을 유</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>投
-1. 던질 투(cast)
-2. 줄 선(Wire)
+1. 던질 투
+2. 세금 세
 3. 지날 경</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 던질 투(cast)</t>
+          <t>1, 던질 투</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>抛
-1. 방패 간(Dry)
-2. 한나라 한
-3. 던질 포(throw)</t>
+1. 던질 포
+2. 책 권
+3. 세금 세</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 던질 포(throw)</t>
+          <t>1, 던질 포</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>線
-1. 줄 선(Wire)
-2. 방패 간(Dry)
-3. 뵐 알(Be)</t>
+1. 형세 세
+2. 줄 선
+3. 탄식할 탄</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 줄 선(Wire)</t>
+          <t>2, 줄 선</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>卷
-1. 가벼울 경(light)
-2. 탄식할 탄
-3. 책 권(roll)</t>
+1. 책 권
+2. 볼 견
+3. 뵐 알</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 책 권(roll)</t>
+          <t>1, 책 권</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>捲
-1. 한나라 한
-2. 실 사(Silk)
-3. 거둘 권</t>
+1. 세금 세
+2. 거둘 권
+3. 자리 석</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 거둘 권, 힘쓸 권(roll)</t>
+          <t>2, 거둘 권, 힘쓸 권</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>干
-1. 방패 간(Dry)
-2. 남길 유
-3. 자리 석(seat)</t>
+1. 실 사
+2. 방패 간
+3. 박을 탁</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 방패 간(Dry)</t>
+          <t>2, 방패 간</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>拓
-1. 남길 유
-2. 지날 경
-3. 박을 탁</t>
+1. 거둘 권
+2. 박을 탁
+3. 자리 석</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 박을 탁, 넓힐 척(Extend)</t>
+          <t>2, 박을 탁, 넓힐 척</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>見
-1. 볼 견
-2. 한나라 한
-3. 석 삼</t>
+1. 지름길 경
+2. 볼 견
+3. 박을 탁</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 볼 견, 뵈올 현</t>
+          <t>2, 볼 견, 뵈올 현</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>謁
-1. 뵐 알(Be)
-2. 석 삼
-3. 자리 석(seat)</t>
+1. 형세 세
+2. 뵐 알
+3. 던질 포</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 뵐 알(Be)</t>
+          <t>2, 뵐 알</t>
         </is>
       </c>
     </row>
@@ -615,13 +615,13 @@
         <is>
           <t>參
 1. 석 삼
-2. 세금 세(Tax)
-3. 형세 세</t>
+2. 한나라 한
+3. 자리 석</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 석 삼, 참여할 참(Ginseng)</t>
+          <t>1, 석 삼, 참여할 참</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>席
-1. 가벼울 경(light)
-2. 자리 석(seat)
-3. 송곳 추(Cone)</t>
+1. 남길 유
+2. 자리 석
+3. 뵐 알</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 자리 석(seat)</t>
+          <t>2, 자리 석</t>
         </is>
       </c>
     </row>
@@ -645,13 +645,13 @@
         <is>
           <t>和
 1. 화목할 화
-2. 지날 경
-3. 석 삼</t>
+2. 박을 탁
+3. 지날 경</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 화목할 화, 화할 화(and)</t>
+          <t>1, 화목할 화, 화할 화</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>稅
-1. 귀할 귀(expensive)
-2. 세금 세(Tax)
-3. 방패 간(Dry)</t>
+1. 자리 석
+2. 세금 세
+3. 볼 견</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 세금 세(Tax)</t>
+          <t>2, 세금 세</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>勢
-1. 지름길 경
-2. 방패 간(Dry)
-3. 형세 세</t>
+1. 형세 세
+2. 석 삼
+3. 던질 투</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 형세 세, 기세 세(Potential)</t>
+          <t>1, 형세 세, 기세 세</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>絲
-1. 실 사(Silk)
-2. 한나라 한
-3. 탄식할 탄</t>
+1. 실 사
+2. 거둘 권
+3. 박을 탁</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, 실 사(Silk)</t>
+          <t>1, 실 사</t>
         </is>
       </c>
     </row>
@@ -705,13 +705,13 @@
         <is>
           <t>經
 1. 지날 경
-2. 볼 견
-3. 귀할 귀(expensive)</t>
+2. 뵐 알
+3. 지름길 경</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 지날 경, 글 경(through)</t>
+          <t>1, 지날 경, 글 경</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>輕
-1. 실 사(Silk)
-2. 던질 투(cast)
-3. 가벼울 경(light)</t>
+1. 가벼울 경
+2. 방패 간
+3. 박을 탁</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 가벼울 경(light)</t>
+          <t>1, 가벼울 경</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>徑
-1. 귀할 귀(expensive)
-2. 지름길 경
-3. 자리 석(seat)</t>
+1. 세금 세
+2. 송곳 추
+3. 지름길 경</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 지름길 경, 길 경(path)</t>
+          <t>3, 지름길 경, 길 경</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>漢
-1. 탄식할 탄
-2. 석 삼
-3. 한나라 한</t>
+1. 줄 선
+2. 한나라 한
+3. 남길 유</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 한나라 한, 접미사 한(Chinese)</t>
+          <t>2, 한나라 한, 접미사 한</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>嘆/歎
-1. 탄식할 탄
-2. 볼 견
-3. 송곳 추(Cone)</t>
+1. 화목할 화
+2. 탄식할 탄
+3. 줄 선</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 탄식할 탄, 감탄할 탄(Sigh/sigh)</t>
+          <t>2, 탄식할 탄, 감탄할 탄</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>隹
-1. 화목할 화
+1. 새 추
 2. 남길 유
-3. 새 추(Lingering)</t>
+3. 형세 세</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 새 추(Lingering)</t>
+          <t>1, 새 추</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>錐
-1. 지날 경
-2. 송곳 추(Cone)
-3. 귀할 귀(expensive)</t>
+1. 실 사
+2. 화목할 화
+3. 송곳 추</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 송곳 추(Cone)</t>
+          <t>3, 송곳 추</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>貴
-1. 던질 투
-2. 귀할 귀
-3. 던질 포</t>
+1. 새 추
+2. 던질 투
+3. 귀할 귀</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 귀할 귀</t>
+          <t>3, 귀할 귀</t>
         </is>
       </c>
     </row>
@@ -464,9 +464,9 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>遺
-1. 방패 간
+1. 뵐 알
 2. 남길 유
-3. 형세 세</t>
+3. 던질 포</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,8 +480,8 @@
         <is>
           <t>投
 1. 던질 투
-2. 세금 세
-3. 지날 경</t>
+2. 송곳 추
+3. 책 권</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -495,8 +495,8 @@
         <is>
           <t>抛
 1. 던질 포
-2. 책 권
-3. 세금 세</t>
+2. 남길 유
+3. 실 사</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>線
-1. 형세 세
-2. 줄 선
-3. 탄식할 탄</t>
+1. 줄 선
+2. 지날 경
+3. 귀할 귀</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 줄 선</t>
+          <t>1, 줄 선</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>卷
-1. 책 권
-2. 볼 견
-3. 뵐 알</t>
+1. 뵐 알
+2. 책 권
+3. 탄식할 탄</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 책 권</t>
+          <t>2, 책 권</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>捲
-1. 세금 세
-2. 거둘 권
-3. 자리 석</t>
+1. 귀할 귀
+2. 새 추
+3. 거둘 권</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 거둘 권, 힘쓸 권</t>
+          <t>3, 거둘 권, 힘쓸 권</t>
         </is>
       </c>
     </row>
@@ -554,248 +554,248 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>干
+1. 지날 경
+2. 줄 선
+3. 방패 간</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 방패 간</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>拓
+1. 박을 탁
+2. 지날 경
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1, 박을 탁, 넓힐 척</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>見
+1. 지름길 경
+2. 가벼울 경
+3. 볼 견</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3, 볼 견, 뵈올 현</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>謁
+1. 가벼울 경
+2. 세금 세
+3. 뵐 알</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 뵐 알</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>參
+1. 방패 간
+2. 석 삼
+3. 거둘 권</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 석 삼, 참여할 참</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>席
+1. 자리 석
+2. 남길 유
+3. 지름길 경</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 자리 석</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>和
+1. 뵐 알
+2. 형세 세
+3. 화목할 화</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3, 화목할 화, 화할 화</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>稅
+1. 세금 세
+2. 줄 선
+3. 뵐 알</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, 세금 세</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>勢
+1. 탄식할 탄
+2. 형세 세
+3. 볼 견</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, 형세 세, 기세 세</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>絲
+1. 뵐 알
+2. 박을 탁
+3. 실 사</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 실 사</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>經
+1. 박을 탁
+2. 지날 경
+3. 방패 간</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 지날 경, 글 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>輕
+1. 실 사
+2. 세금 세
+3. 가벼울 경</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3, 가벼울 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>徑
+1. 볼 견
+2. 지름길 경
+3. 던질 포</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2, 지름길 경, 길 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>漢
+1. 책 권
+2. 거둘 권
+3. 한나라 한</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 한나라 한, 접미사 한</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>嘆/歎
+1. 가벼울 경
+2. 탄식할 탄
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 탄식할 탄, 감탄할 탄</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>隹
+1. 새 추
+2. 뵐 알
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1, 새 추</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>錐
 1. 실 사
 2. 방패 간
-3. 박을 탁</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2, 방패 간</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>拓
-1. 거둘 권
-2. 박을 탁
-3. 자리 석</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2, 박을 탁, 넓힐 척</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>見
-1. 지름길 경
-2. 볼 견
-3. 박을 탁</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2, 볼 견, 뵈올 현</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>謁
-1. 형세 세
-2. 뵐 알
-3. 던질 포</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 뵐 알</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>參
-1. 석 삼
-2. 한나라 한
-3. 자리 석</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1, 석 삼, 참여할 참</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>席
-1. 남길 유
-2. 자리 석
-3. 뵐 알</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 자리 석</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>和
-1. 화목할 화
-2. 박을 탁
-3. 지날 경</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1, 화목할 화, 화할 화</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>稅
-1. 자리 석
-2. 세금 세
-3. 볼 견</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 세금 세</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>勢
-1. 형세 세
-2. 석 삼
-3. 던질 투</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, 형세 세, 기세 세</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>絲
-1. 실 사
-2. 거둘 권
-3. 박을 탁</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 실 사</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>經
-1. 지날 경
-2. 뵐 알
-3. 지름길 경</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1, 지날 경, 글 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>輕
-1. 가벼울 경
-2. 방패 간
-3. 박을 탁</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 가벼울 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>徑
-1. 세금 세
-2. 송곳 추
-3. 지름길 경</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3, 지름길 경, 길 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>漢
-1. 줄 선
-2. 한나라 한
-3. 남길 유</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 한나라 한, 접미사 한</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>嘆/歎
-1. 화목할 화
-2. 탄식할 탄
-3. 줄 선</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 탄식할 탄, 감탄할 탄</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>隹
-1. 새 추
-2. 남길 유
-3. 형세 세</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 새 추</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>錐
-1. 실 사
-2. 화목할 화
 3. 송곳 추</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,392 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>隹
+1. 새 추
+2. 뵐 알
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1, 새 추</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>遺
+1. 뵐 알
+2. 남길 유
+3. 던질 포</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 남길 유, 잃을 유</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>勢
+1. 탄식할 탄
+2. 형세 세
+3. 볼 견</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 형세 세, 기세 세</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>投
+1. 던질 투
+2. 송곳 추
+3. 책 권</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 던질 투</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>捲
+1. 귀할 귀
+2. 새 추
+3. 거둘 권</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 거둘 권, 힘쓸 권</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>見
+1. 지름길 경
+2. 가벼울 경
+3. 볼 견</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 볼 견, 뵈올 현</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>抛
+1. 던질 포
+2. 남길 유
+3. 실 사</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 던질 포</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>拓
+1. 박을 탁
+2. 지날 경
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1, 박을 탁, 넓힐 척</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>絲
+1. 뵐 알
+2. 박을 탁
+3. 실 사</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 실 사</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>輕
+1. 실 사
+2. 세금 세
+3. 가벼울 경</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3, 가벼울 경</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>漢
+1. 책 권
+2. 거둘 권
+3. 한나라 한</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 한나라 한, 접미사 한</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>線
+1. 줄 선
+2. 지날 경
+3. 귀할 귀</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 줄 선</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>和
+1. 뵐 알
+2. 형세 세
+3. 화목할 화</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 화목할 화, 화할 화</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>經
+1. 박을 탁
+2. 지날 경
+3. 방패 간</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 지날 경, 글 경</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>參
+1. 방패 간
+2. 석 삼
+3. 거둘 권</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 석 삼, 참여할 참</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>謁
+1. 가벼울 경
+2. 세금 세
+3. 뵐 알</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 뵐 알</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>錐
+1. 실 사
+2. 방패 간
+3. 송곳 추</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 송곳 추</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>徑
+1. 볼 견
+2. 지름길 경
+3. 던질 포</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 지름길 경, 길 경</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>席
+1. 자리 석
+2. 남길 유
+3. 지름길 경</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1, 자리 석</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>稅
+1. 세금 세
+2. 줄 선
+3. 뵐 알</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 세금 세</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>嘆/歎
+1. 가벼울 경
+2. 탄식할 탄
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2, 탄식할 탄, 감탄할 탄</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>貴
 1. 새 추
@@ -454,74 +837,35 @@
 3. 귀할 귀</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>3, 귀할 귀</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>遺
-1. 뵐 알
-2. 남길 유
-3. 던질 포</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, 남길 유, 잃을 유</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>投
-1. 던질 투
-2. 송곳 추
-3. 책 권</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1, 던질 투</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>抛
-1. 던질 포
-2. 남길 유
-3. 실 사</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, 던질 포</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>線
-1. 줄 선
-2. 지날 경
-3. 귀할 귀</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1, 줄 선</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>干
+1. 지날 경
+2. 줄 선
+3. 방패 간</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 방패 간</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>卷
 1. 뵐 알
@@ -529,280 +873,13 @@
 3. 탄식할 탄</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>2, 책 권</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>捲
-1. 귀할 귀
-2. 새 추
-3. 거둘 권</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3, 거둘 권, 힘쓸 권</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>干
-1. 지날 경
-2. 줄 선
-3. 방패 간</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 방패 간</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>拓
-1. 박을 탁
-2. 지날 경
-3. 줄 선</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 박을 탁, 넓힐 척</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>見
-1. 지름길 경
-2. 가벼울 경
-3. 볼 견</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 볼 견, 뵈올 현</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>謁
-1. 가벼울 경
-2. 세금 세
-3. 뵐 알</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, 뵐 알</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>參
-1. 방패 간
-2. 석 삼
-3. 거둘 권</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 석 삼, 참여할 참</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>席
-1. 자리 석
-2. 남길 유
-3. 지름길 경</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1, 자리 석</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>和
-1. 뵐 알
-2. 형세 세
-3. 화목할 화</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 화목할 화, 화할 화</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>稅
-1. 세금 세
-2. 줄 선
-3. 뵐 알</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1, 세금 세</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>勢
-1. 탄식할 탄
-2. 형세 세
-3. 볼 견</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, 형세 세, 기세 세</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>絲
-1. 뵐 알
-2. 박을 탁
-3. 실 사</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 실 사</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>經
-1. 박을 탁
-2. 지날 경
-3. 방패 간</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 지날 경, 글 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>輕
-1. 실 사
-2. 세금 세
-3. 가벼울 경</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3, 가벼울 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>徑
-1. 볼 견
-2. 지름길 경
-3. 던질 포</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2, 지름길 경, 길 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>漢
-1. 책 권
-2. 거둘 권
-3. 한나라 한</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3, 한나라 한, 접미사 한</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>嘆/歎
-1. 가벼울 경
-2. 탄식할 탄
-3. 줄 선</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 탄식할 탄, 감탄할 탄</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>隹
-1. 새 추
-2. 뵐 알
-3. 줄 선</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 새 추</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>錐
-1. 실 사
-2. 방패 간
-3. 송곳 추</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3, 송곳 추</t>
-        </is>
+      <c r="C25" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,442 +444,590 @@
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>隹
-1. 새 추
-2. 뵐 알
-3. 줄 선</t>
+          <t>貴
+1. 넘칠 남
+2. 귀할 귀
+3. 도망할 도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 새 추</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
+          <t>2, 귀할 귀</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>遺
-1. 뵐 알
-2. 남길 유
-3. 던질 포</t>
+1. 지탱할 지
+2. 던질 포
+3. 남길 유</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 남길 유, 잃을 유</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-1</v>
+          <t>3, 남길 유, 잃을 유</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>勢
-1. 탄식할 탄
-2. 형세 세
-3. 볼 견</t>
+          <t>投
+1. 던질 투
+2. 줄 선
+3. 거둘 권</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 형세 세, 기세 세</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1</v>
+          <t>1, 던질 투</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>投
-1. 던질 투
-2. 송곳 추
-3. 책 권</t>
+          <t>抛
+1. 실 사
+2. 던질 포
+3. 자리 석</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 던질 투</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-1</v>
+          <t>2, 던질 포</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>捲
-1. 귀할 귀
-2. 새 추
-3. 거둘 권</t>
+          <t>線
+1. 한나라 한
+2. 줄 선
+3. 정할 정</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 거둘 권, 힘쓸 권</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-1</v>
+          <t>2, 줄 선</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>見
-1. 지름길 경
-2. 가벼울 경
-3. 볼 견</t>
+          <t>卷
+1. 책 권
+2. 거둘 권
+3. 정치 정</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 볼 견, 뵈올 현</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-1</v>
+          <t>1, 책 권</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>抛
-1. 던질 포
-2. 남길 유
-3. 실 사</t>
+          <t>捲
+1. 넘칠 남
+2. 거둘 권
+3. 형세 세</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 던질 포</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-1</v>
+          <t>2, 거둘 권, 힘쓸 권</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>拓
-1. 박을 탁
-2. 지날 경
-3. 줄 선</t>
+          <t>干
+1. 지날 경
+2. 뽑을 선
+3. 방패 간</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 박을 탁, 넓힐 척</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1</v>
+          <t>3, 방패 간</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>絲
-1. 뵐 알
+          <t>拓
+1. 잠잠할 묵
 2. 박을 탁
-3. 실 사</t>
+3. 피할 피</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 실 사</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+          <t>2, 박을 탁, 넓힐 척</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>輕
-1. 실 사
-2. 세금 세
-3. 가벼울 경</t>
+          <t>見
+1. 볼 견
+2. 재물 화
+3. 혀 설</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 가벼울 경</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-1</v>
+          <t>1, 볼 견, 뵈올 현</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>漢
-1. 책 권
-2. 거둘 권
-3. 한나라 한</t>
+          <t>謁
+1. 정할 정
+2. 뵐 알
+3. 잠잠할 묵</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 한나라 한, 접미사 한</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-1</v>
+          <t>2, 뵐 알</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>線
-1. 줄 선
-2. 지날 경
-3. 귀할 귀</t>
+          <t>參
+1. 돋울 도
+2. 피할 피
+3. 석 삼</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 줄 선</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
+          <t>3, 석 삼, 참여할 참</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>席
+1. 귀할 귀
+2. 거둘 권
+3. 자리 석</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 자리 석</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>和
-1. 뵐 알
+1. 남길 유
+2. 화목할 화
+3. 재물 화</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 화목할 화, 화할 화</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>稅
+1. 세금 세
+2. 송곳 추
+3. 정치 정</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, 세금 세</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>勢
+1. 형세 세
+2. 맹세 맹
+3. 지날 경</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1, 형세 세, 기세 세</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>絲
+1. 줄 선
+2. 지탱할 지
+3. 실 사</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 실 사</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>經
+1. 지날 경
+2. 새 추
+3. 형세 세</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 지날 경, 글 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>輕
+1. 줄 선
+2. 가벼울 경
+3. 한나라 한</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 가벼울 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>徑
+1. 지름길 경
+2. 재물 화
+3. 한나라 한</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 지름길 경, 길 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>漢
+1. 한나라 한
+2. 돋울 도
+3. 지날 경</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 한나라 한, 접미사 한</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>嘆/歎
+1. 탄식할 탄
+2. 남길 유
+3. 넘칠 남</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 탄식할 탄, 감탄할 탄</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>隹
+1. 정할 정
+2. 새 추
+3. 뽑을 선</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 새 추</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>錐
+1. 송곳 추
 2. 형세 세
 3. 화목할 화</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 화목할 화, 화할 화</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>經
-1. 박을 탁
-2. 지날 경
-3. 방패 간</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, 지날 경, 글 경</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>參
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 송곳 추</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>舌
+1. 돋울 도
+2. 남길 유
+3. 혀 설</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 혀 설</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>活
+1. 말할 화
+2. 살 활
+3. 세금 세</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 살 활</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>話
 1. 방패 간
-2. 석 삼
+2. 화목할 화
+3. 말할 화</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 말할 화, 이야기 화</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>共
+1. 실 사
+2. 함께 공
+3. 재물 화</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 함께 공</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>選
+1. 탄식할 탄
+2. 뽑을 선
+3. 볼 견</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 뽑을 선</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>貨
+1. 정치 정
+2. 화목할 화
+3. 재물 화</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 재물 화</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>政
+1. 정치 정
+2. 거둘 권
+3. 줄 선</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, 정치 정, 다스릴 정</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>定
+1. 살 활
+2. 형세 세
+3. 정할 정</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 정할 정</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>濫
+1. 넘칠 남
+2. 던질 투
 3. 거둘 권</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 석 삼, 참여할 참</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>謁
-1. 가벼울 경
-2. 세금 세
-3. 뵐 알</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, 뵐 알</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>錐
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 넘칠 남</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>挑
+1. 책 권
+2. 남길 유
+3. 돋울 도</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 돋울 도, 끌어낼 도</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>逃
+1. 도망할 도
+2. 돋울 도
+3. 실 사</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 도망할 도</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>避
 1. 실 사
-2. 방패 간
-3. 송곳 추</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 송곳 추</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>徑
-1. 볼 견
-2. 지름길 경
-3. 던질 포</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 지름길 경, 길 경</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>席
-1. 자리 석
-2. 남길 유
-3. 지름길 경</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 자리 석</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>稅
-1. 세금 세
-2. 줄 선
-3. 뵐 알</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 세금 세</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>嘆/歎
-1. 가벼울 경
-2. 탄식할 탄
-3. 줄 선</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 탄식할 탄, 감탄할 탄</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>貴
-1. 새 추
-2. 던질 투
-3. 귀할 귀</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3, 귀할 귀</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>干
-1. 지날 경
-2. 줄 선
-3. 방패 간</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 방패 간</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>卷
-1. 뵐 알
-2. 책 권
-3. 탄식할 탄</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 책 권</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>-1</v>
+2. 피할 피
+3. 정할 정</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2, 피할 피</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>支
+1. 형세 세
+2. 지탱할 지
+3. 화목할 화</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 지탱할 지</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>默
+1. 잠잠할 묵
+2. 피할 피
+3. 도망할 도</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 잠잠할 묵, 고요할 묵</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>盟
+1. 뽑을 선
+2. 자리 석
+3. 맹세 맹</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 맹세 맹</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>貴
-1. 넘칠 남
-2. 귀할 귀
-3. 도망할 도</t>
+1. 함께 공
+2. 잠잠할 묵
+3. 귀할 귀</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 귀할 귀</t>
+          <t>3, 귀할 귀</t>
         </is>
       </c>
     </row>
@@ -464,8 +464,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>遺
-1. 지탱할 지
-2. 던질 포
+1. 가벼울 경
+2. 방패 간
 3. 남길 유</t>
         </is>
       </c>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>投
-1. 던질 투
-2. 줄 선
-3. 거둘 권</t>
+1. 던질 포
+2. 거둘 권
+3. 던질 투</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 던질 투</t>
+          <t>3, 던질 투</t>
         </is>
       </c>
     </row>
@@ -494,9 +494,9 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>抛
-1. 실 사
+1. 지름길 경
 2. 던질 포
-3. 자리 석</t>
+3. 귀할 귀</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>線
-1. 한나라 한
-2. 줄 선
-3. 정할 정</t>
+1. 줄 선
+2. 잠잠할 묵
+3. 탄식할 탄</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 줄 선</t>
+          <t>1, 줄 선</t>
         </is>
       </c>
     </row>
@@ -525,8 +525,8 @@
         <is>
           <t>卷
 1. 책 권
-2. 거둘 권
-3. 정치 정</t>
+2. 화목할 화
+3. 돋울 도</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,9 +539,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>捲
-1. 넘칠 남
+1. 잠잠할 묵
 2. 거둘 권
-3. 형세 세</t>
+3. 탄식할 탄</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>干
-1. 지날 경
-2. 뽑을 선
-3. 방패 간</t>
+1. 방패 간
+2. 남길 유
+3. 화목할 화</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, 방패 간</t>
+          <t>1, 방패 간</t>
         </is>
       </c>
     </row>
@@ -569,9 +569,9 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>拓
-1. 잠잠할 묵
+1. 세금 세
 2. 박을 탁
-3. 피할 피</t>
+3. 혀 설</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>見
-1. 볼 견
+1. 던질 포
 2. 재물 화
-3. 혀 설</t>
+3. 볼 견</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 볼 견, 뵈올 현</t>
+          <t>3, 볼 견, 뵈올 현</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>謁
-1. 정할 정
-2. 뵐 알
-3. 잠잠할 묵</t>
+1. 뵐 알
+2. 실 사
+3. 던질 포</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 뵐 알</t>
+          <t>1, 뵐 알</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>參
-1. 돋울 도
-2. 피할 피
-3. 석 삼</t>
+1. 지름길 경
+2. 석 삼
+3. 돋울 도</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 석 삼, 참여할 참</t>
+          <t>2, 석 삼, 참여할 참</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>席
-1. 귀할 귀
-2. 거둘 권
-3. 자리 석</t>
+1. 자리 석
+2. 화목할 화
+3. 남길 유</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, 자리 석</t>
+          <t>1, 자리 석</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>和
-1. 남길 유
-2. 화목할 화
-3. 재물 화</t>
+1. 화목할 화
+2. 볼 견
+3. 새 추</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 화목할 화, 화할 화</t>
+          <t>1, 화목할 화, 화할 화</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>稅
-1. 세금 세
-2. 송곳 추
+1. 정할 정
+2. 세금 세
 3. 정치 정</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, 세금 세</t>
+          <t>2, 세금 세</t>
         </is>
       </c>
     </row>
@@ -675,8 +675,8 @@
         <is>
           <t>勢
 1. 형세 세
-2. 맹세 맹
-3. 지날 경</t>
+2. 뽑을 선
+3. 거둘 권</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>絲
-1. 줄 선
-2. 지탱할 지
-3. 실 사</t>
+1. 실 사
+2. 정할 정
+3. 던질 투</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 실 사</t>
+          <t>1, 실 사</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>經
-1. 지날 경
-2. 새 추
-3. 형세 세</t>
+1. 책 권
+2. 지날 경
+3. 자리 석</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 지날 경, 글 경</t>
+          <t>2, 지날 경, 글 경</t>
         </is>
       </c>
     </row>
@@ -719,9 +719,9 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>輕
-1. 줄 선
+1. 정치 정
 2. 가벼울 경
-3. 한나라 한</t>
+3. 뵐 알</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>徑
-1. 지름길 경
-2. 재물 화
-3. 한나라 한</t>
+1. 말할 화
+2. 혀 설
+3. 지름길 경</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1, 지름길 경, 길 경</t>
+          <t>3, 지름길 경, 길 경</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>漢
-1. 한나라 한
-2. 돋울 도
-3. 지날 경</t>
+1. 지탱할 지
+2. 함께 공
+3. 한나라 한</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 한나라 한, 접미사 한</t>
+          <t>3, 한나라 한, 접미사 한</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>嘆/歎
-1. 탄식할 탄
-2. 남길 유
-3. 넘칠 남</t>
+1. 볼 견
+2. 탄식할 탄
+3. 살 활</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 탄식할 탄, 감탄할 탄</t>
+          <t>2, 탄식할 탄, 감탄할 탄</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>隹
-1. 정할 정
-2. 새 추
-3. 뽑을 선</t>
+1. 남길 유
+2. 책 권
+3. 새 추</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2, 새 추</t>
+          <t>3, 새 추</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>錐
-1. 송곳 추
-2. 형세 세
-3. 화목할 화</t>
+1. 살 활
+2. 피할 피
+3. 송곳 추</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 송곳 추</t>
+          <t>3, 송곳 추</t>
         </is>
       </c>
     </row>
@@ -809,8 +809,8 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>舌
-1. 돋울 도
-2. 남길 유
+1. 던질 투
+2. 정치 정
 3. 혀 설</t>
         </is>
       </c>
@@ -824,9 +824,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>活
-1. 말할 화
+1. 지탱할 지
 2. 살 활
-3. 세금 세</t>
+3. 뽑을 선</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>話
-1. 방패 간
-2. 화목할 화
-3. 말할 화</t>
+1. 책 권
+2. 말할 화
+3. 지름길 경</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 말할 화, 이야기 화</t>
+          <t>2, 말할 화, 이야기 화</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>共
-1. 실 사
-2. 함께 공
-3. 재물 화</t>
+1. 함께 공
+2. 던질 포
+3. 귀할 귀</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 함께 공</t>
+          <t>1, 함께 공</t>
         </is>
       </c>
     </row>
@@ -869,9 +869,9 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>選
-1. 탄식할 탄
+1. 볼 견
 2. 뽑을 선
-3. 볼 견</t>
+3. 말할 화</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>貨
-1. 정치 정
-2. 화목할 화
-3. 재물 화</t>
+1. 재물 화
+2. 박을 탁
+3. 석 삼</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 재물 화</t>
+          <t>1, 재물 화</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>政
-1. 정치 정
-2. 거둘 권
-3. 줄 선</t>
+1. 뵐 알
+2. 지탱할 지
+3. 정치 정</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1, 정치 정, 다스릴 정</t>
+          <t>3, 정치 정, 다스릴 정</t>
         </is>
       </c>
     </row>
@@ -915,13 +915,13 @@
         <is>
           <t>定
 1. 살 활
-2. 형세 세
-3. 정할 정</t>
+2. 정할 정
+3. 도망할 도</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3, 정할 정</t>
+          <t>2, 정할 정</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>濫
-1. 넘칠 남
-2. 던질 투
-3. 거둘 권</t>
+1. 형세 세
+2. 넘칠 남
+3. 지날 경</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 넘칠 남</t>
+          <t>2, 넘칠 남</t>
         </is>
       </c>
     </row>
@@ -944,8 +944,8 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>挑
-1. 책 권
-2. 남길 유
+1. 화목할 화
+2. 박을 탁
 3. 돋울 도</t>
         </is>
       </c>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>逃
-1. 도망할 도
-2. 돋울 도
-3. 실 사</t>
+1. 맹세 맹
+2. 도망할 도
+3. 뽑을 선</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 도망할 도</t>
+          <t>2, 도망할 도</t>
         </is>
       </c>
     </row>
@@ -974,9 +974,9 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>避
-1. 실 사
+1. 도망할 도
 2. 피할 피
-3. 정할 정</t>
+3. 한나라 한</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>支
-1. 형세 세
-2. 지탱할 지
-3. 화목할 화</t>
+1. 지탱할 지
+2. 피할 피
+3. 던질 포</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 지탱할 지</t>
+          <t>1, 지탱할 지</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>默
-1. 잠잠할 묵
-2. 피할 피
-3. 도망할 도</t>
+1. 지탱할 지
+2. 잠잠할 묵
+3. 새 추</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 잠잠할 묵, 고요할 묵</t>
+          <t>2, 잠잠할 묵, 고요할 묵</t>
         </is>
       </c>
     </row>
@@ -1019,8 +1019,8 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>盟
-1. 뽑을 선
-2. 자리 석
+1. 정치 정
+2. 새 추
 3. 맹세 맹</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어1글자.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>貴
-1. 함께 공
-2. 잠잠할 묵
-3. 귀할 귀</t>
+1. 귀할 귀
+2. 지탱할 지
+3. 피할 피</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 귀할 귀</t>
+          <t>1, 귀할 귀</t>
         </is>
       </c>
     </row>
@@ -464,269 +464,269 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>遺
+1. 남길 유
+2. 잠잠할 묵
+3. 혀 설</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, 남길 유, 잃을 유</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>投
+1. 던질 투
+2. 볼 견
+3. 화목할 화</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1, 던질 투</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>抛
+1. 던질 포
+2. 맹세 맹
+3. 형세 세</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 던질 포</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>線
+1. 맹세 맹
+2. 줄 선
+3. 석 삼</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2, 줄 선</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>卷
+1. 새 추
+2. 책 권
+3. 탄식할 탄</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 책 권</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>捲
+1. 귀할 귀
+2. 거둘 권
+3. 돋울 도</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 거둘 권, 힘쓸 권</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>干
+1. 실 사
+2. 방패 간
+3. 던질 투</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 방패 간</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>拓
+1. 혀 설
+2. 정할 정
+3. 박을 탁</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 박을 탁, 넓힐 척</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>見
+1. 볼 견
+2. 책 권
+3. 형세 세</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 볼 견, 뵈올 현</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>謁
+1. 뵐 알
+2. 함께 공
+3. 박을 탁</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 뵐 알</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>參
+1. 재물 화
+2. 석 삼
+3. 책 권</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 석 삼, 참여할 참</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>席
+1. 자리 석
+2. 가벼울 경
+3. 송곳 추</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 자리 석</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>和
+1. 화목할 화
+2. 뽑을 선
+3. 던질 포</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 화목할 화, 화할 화</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>稅
+1. 책 권
+2. 세금 세
+3. 석 삼</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 세금 세</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>勢
+1. 말할 화
+2. 책 권
+3. 형세 세</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 형세 세, 기세 세</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>絲
+1. 함께 공
+2. 실 사
+3. 살 활</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, 실 사</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>經
+1. 지날 경
+2. 박을 탁
+3. 도망할 도</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 지날 경, 글 경</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>輕
 1. 가벼울 경
 2. 방패 간
-3. 남길 유</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, 남길 유, 잃을 유</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>投
-1. 던질 포
-2. 거둘 권
-3. 던질 투</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 던질 투</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>抛
-1. 지름길 경
-2. 던질 포
-3. 귀할 귀</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 던질 포</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>線
-1. 줄 선
-2. 잠잠할 묵
 3. 탄식할 탄</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1, 줄 선</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卷
-1. 책 권
-2. 화목할 화
-3. 돋울 도</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 책 권</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>捲
-1. 잠잠할 묵
-2. 거둘 권
-3. 탄식할 탄</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, 거둘 권, 힘쓸 권</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>干
-1. 방패 간
-2. 남길 유
-3. 화목할 화</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1, 방패 간</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>拓
-1. 세금 세
-2. 박을 탁
-3. 혀 설</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2, 박을 탁, 넓힐 척</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>見
-1. 던질 포
-2. 재물 화
-3. 볼 견</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 볼 견, 뵈올 현</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>謁
-1. 뵐 알
-2. 실 사
-3. 던질 포</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 뵐 알</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>參
-1. 지름길 경
-2. 석 삼
-3. 돋울 도</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 석 삼, 참여할 참</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>席
-1. 자리 석
-2. 화목할 화
-3. 남길 유</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1, 자리 석</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>和
-1. 화목할 화
-2. 볼 견
-3. 새 추</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1, 화목할 화, 화할 화</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>稅
-1. 정할 정
-2. 세금 세
-3. 정치 정</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 세금 세</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>勢
-1. 형세 세
-2. 뽑을 선
-3. 거둘 권</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, 형세 세, 기세 세</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>絲
-1. 실 사
-2. 정할 정
-3. 던질 투</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 실 사</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>經
-1. 책 권
-2. 지날 경
-3. 자리 석</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 지날 경, 글 경</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>輕
-1. 정치 정
-2. 가벼울 경
-3. 뵐 알</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 가벼울 경</t>
+          <t>1, 가벼울 경</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>徑
-1. 말할 화
-2. 혀 설
-3. 지름길 경</t>
+1. 줄 선
+2. 지름길 경
+3. 탄식할 탄</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 지름길 경, 길 경</t>
+          <t>2, 지름길 경, 길 경</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>漢
-1. 지탱할 지
-2. 함께 공
-3. 한나라 한</t>
+1. 방패 간
+2. 한나라 한
+3. 송곳 추</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 한나라 한, 접미사 한</t>
+          <t>2, 한나라 한, 접미사 한</t>
         </is>
       </c>
     </row>
@@ -764,9 +764,9 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>嘆/歎
-1. 볼 견
+1. 책 권
 2. 탄식할 탄
-3. 살 활</t>
+3. 새 추</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>隹
-1. 남길 유
-2. 책 권
-3. 새 추</t>
+1. 새 추
+2. 형세 세
+3. 재물 화</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 새 추</t>
+          <t>1, 새 추</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>錐
-1. 살 활
-2. 피할 피
-3. 송곳 추</t>
+1. 송곳 추
+2. 자리 석
+3. 살 활</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 송곳 추</t>
+          <t>1, 송곳 추</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>舌
-1. 던질 투
-2. 정치 정
-3. 혀 설</t>
+1. 혀 설
+2. 자리 석
+3. 가벼울 경</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 혀 설</t>
+          <t>1, 혀 설</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>活
-1. 지탱할 지
-2. 살 활
-3. 뽑을 선</t>
+1. 살 활
+2. 뽑을 선
+3. 송곳 추</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 살 활</t>
+          <t>1, 살 활</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>話
-1. 책 권
-2. 말할 화
-3. 지름길 경</t>
+1. 말할 화
+2. 송곳 추
+3. 정할 정</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 말할 화, 이야기 화</t>
+          <t>1, 말할 화, 이야기 화</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>共
-1. 함께 공
-2. 던질 포
-3. 귀할 귀</t>
+1. 던질 포
+2. 함께 공
+3. 화목할 화</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 함께 공</t>
+          <t>2, 함께 공</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>選
-1. 볼 견
-2. 뽑을 선
-3. 말할 화</t>
+1. 던질 투
+2. 재물 화
+3. 뽑을 선</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 뽑을 선</t>
+          <t>3, 뽑을 선</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>貨
-1. 재물 화
+1. 말할 화
 2. 박을 탁
-3. 석 삼</t>
+3. 재물 화</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 재물 화</t>
+          <t>3, 재물 화</t>
         </is>
       </c>
     </row>
@@ -899,8 +899,8 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>政
-1. 뵐 알
-2. 지탱할 지
+1. 피할 피
+2. 살 활
 3. 정치 정</t>
         </is>
       </c>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>定
-1. 살 활
-2. 정할 정
-3. 도망할 도</t>
+1. 정할 정
+2. 뵐 알
+3. 화목할 화</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 정할 정</t>
+          <t>1, 정할 정</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>濫
-1. 형세 세
-2. 넘칠 남
-3. 지날 경</t>
+1. 함께 공
+2. 실 사
+3. 넘칠 남</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2, 넘칠 남</t>
+          <t>3, 넘칠 남</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>挑
-1. 화목할 화
-2. 박을 탁
-3. 돋울 도</t>
+1. 돋울 도
+2. 새 추
+3. 가벼울 경</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 돋울 도, 끌어낼 도</t>
+          <t>1, 돋울 도, 끌어낼 도</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>逃
-1. 맹세 맹
-2. 도망할 도
-3. 뽑을 선</t>
+1. 도망할 도
+2. 송곳 추
+3. 가벼울 경</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2, 도망할 도</t>
+          <t>1, 도망할 도</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>避
-1. 도망할 도
-2. 피할 피
-3. 한나라 한</t>
+1. 말할 화
+2. 방패 간
+3. 피할 피</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2, 피할 피</t>
+          <t>3, 피할 피</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>支
-1. 지탱할 지
-2. 피할 피
-3. 던질 포</t>
+1. 한나라 한
+2. 지탱할 지
+3. 화목할 화</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1, 지탱할 지</t>
+          <t>2, 지탱할 지</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>默
-1. 지탱할 지
-2. 잠잠할 묵
-3. 새 추</t>
+1. 줄 선
+2. 형세 세
+3. 잠잠할 묵</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2, 잠잠할 묵, 고요할 묵</t>
+          <t>3, 잠잠할 묵, 고요할 묵</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>盟
-1. 정치 정
-2. 새 추
-3. 맹세 맹</t>
+1. 지날 경
+2. 맹세 맹
+3. 함께 공</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3, 맹세 맹</t>
+          <t>2, 맹세 맹</t>
         </is>
       </c>
     </row>
